--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/e2e/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/e2e/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2018-02-28 11:32:11</t>
@@ -124,13 +124,16 @@
     <t>2018-02-28 11:31:50</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2018-02-28 11:34:34</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
     <t>8509edc2-8290-4d8e-bae0-1a55c178ac8b.ffc68f0aa9d9532ed84f61e5e3097df5201a779e.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2018-02-28 11:37:30</t>
   </si>
 </sst>
 </file>
@@ -268,8 +271,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.9639423915318" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777047293527" customWidth="1"/>
+    <col min="6" max="6" width="29.9777047293527" customWidth="1"/>
     <col min="7" max="7" width="29.5073743547712" customWidth="1"/>
   </cols>
   <sheetData>
@@ -340,15 +343,15 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197069440569" customWidth="1"/>
     <col min="9" max="9" width="23.1132158551897" customWidth="1"/>
-    <col min="10" max="10" width="18.6506053379604" customWidth="1"/>
-    <col min="11" max="11" width="21.7054770333426" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533006940569" customWidth="1"/>
     <col min="13" max="13" width="23.8743765694754" customWidth="1"/>
     <col min="14" max="14" width="19.298205784389" customWidth="1"/>
@@ -442,11 +445,11 @@
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>36</v>
@@ -473,6 +476,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="8509edc2-8290-4d8e-bae0-1a55c178ac8b.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="8509edc2-8290-4d8e-bae0-1a55c178ac8b.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -491,15 +495,15 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197069440569" customWidth="1"/>
     <col min="9" max="9" width="23.1132158551897" customWidth="1"/>
-    <col min="10" max="10" width="18.6506053379604" customWidth="1"/>
-    <col min="11" max="11" width="21.7054770333426" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533006940569" customWidth="1"/>
     <col min="13" max="13" width="23.8743765694754" customWidth="1"/>
     <col min="14" max="14" width="19.298205784389" customWidth="1"/>
@@ -593,14 +597,14 @@
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -624,6 +628,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="8509edc2-8290-4d8e-bae0-1a55c178ac8b.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="8509edc2-8290-4d8e-bae0-1a55c178ac8b.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/e2e/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/e2e/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>File Name</t>
   </si>
@@ -49,10 +49,10 @@
     <t/>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>2018-02-28 11:32:11</t>
+    <t>In Translation</t>
+  </si>
+  <si>
+    <t>2018-02-28 11:38:43</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -121,13 +121,16 @@
     <t>8509edc2-8290-4d8e-bae0-1a55c178ac8b.ffc68f0aa9d9532ed84f61e5e3097df5201a779e.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2018-02-28 11:31:50</t>
+    <t>2018-02-28 11:38:17</t>
   </si>
   <si>
     <t>2018-02-28 11:34:34</t>
   </si>
   <si>
     <t>True</t>
+  </si>
+  <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test4/blob/53bcfd6ddceeb0ab831545734ad52258c35fee06/e2e/8509edc2-8290-4d8e-bae0-1a55c178ac8b.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test4/blob/b119c23701bd64bacf01c5c479d66a5e19dfc508/e2e/8509edc2-8290-4d8e-bae0-1a55c178ac8b.md.</t>
   </si>
   <si>
     <t>8509edc2-8290-4d8e-bae0-1a55c178ac8b.ffc68f0aa9d9532ed84f61e5e3097df5201a779e.de-de.xlf</t>
@@ -271,8 +274,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.9639423915318" customWidth="1"/>
-    <col min="5" max="5" width="29.9777047293527" customWidth="1"/>
-    <col min="6" max="6" width="29.9777047293527" customWidth="1"/>
+    <col min="5" max="5" width="13.4101845877511" customWidth="1"/>
+    <col min="6" max="6" width="13.4101845877511" customWidth="1"/>
     <col min="7" max="7" width="29.5073743547712" customWidth="1"/>
   </cols>
   <sheetData>
@@ -343,7 +346,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
+    <col min="3" max="3" width="13.4101845877511" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
@@ -358,7 +361,7 @@
     <col min="15" max="15" width="16.6648352486747" customWidth="1"/>
     <col min="16" max="16" width="19.7299390520368" customWidth="1"/>
     <col min="17" max="17" width="15.8504747663225" customWidth="1"/>
-    <col min="18" max="18" width="13.7470528738839" customWidth="1"/>
+    <col min="18" max="18" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -470,7 +473,7 @@
         <v>33</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -495,7 +498,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
+    <col min="3" max="3" width="13.4101845877511" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
@@ -510,7 +513,7 @@
     <col min="15" max="15" width="16.6648352486747" customWidth="1"/>
     <col min="16" max="16" width="19.7299390520368" customWidth="1"/>
     <col min="17" max="17" width="15.8504747663225" customWidth="1"/>
-    <col min="18" max="18" width="13.7470528738839" customWidth="1"/>
+    <col min="18" max="18" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -589,7 +592,7 @@
         <v>33</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -601,10 +604,10 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -622,7 +625,7 @@
         <v>33</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/e2e/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/e2e/localization-status.xlsx
@@ -49,10 +49,10 @@
     <t/>
   </si>
   <si>
-    <t>In Translation</t>
-  </si>
-  <si>
-    <t>2018-02-28 11:38:43</t>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2018-02-28 11:39:50</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -121,7 +121,7 @@
     <t>8509edc2-8290-4d8e-bae0-1a55c178ac8b.ffc68f0aa9d9532ed84f61e5e3097df5201a779e.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2018-02-28 11:38:17</t>
+    <t>2018-02-28 11:39:28</t>
   </si>
   <si>
     <t>2018-02-28 11:34:34</t>
@@ -130,7 +130,7 @@
     <t>True</t>
   </si>
   <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test4/blob/53bcfd6ddceeb0ab831545734ad52258c35fee06/e2e/8509edc2-8290-4d8e-bae0-1a55c178ac8b.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test4/blob/b119c23701bd64bacf01c5c479d66a5e19dfc508/e2e/8509edc2-8290-4d8e-bae0-1a55c178ac8b.md.</t>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test4/blob/53bcfd6ddceeb0ab831545734ad52258c35fee06/e2e/8509edc2-8290-4d8e-bae0-1a55c178ac8b.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test4/blob/11fe1ac3f33e94da562da1ef167f46344a9f4114/e2e/8509edc2-8290-4d8e-bae0-1a55c178ac8b.md.</t>
   </si>
   <si>
     <t>8509edc2-8290-4d8e-bae0-1a55c178ac8b.ffc68f0aa9d9532ed84f61e5e3097df5201a779e.de-de.xlf</t>
@@ -274,8 +274,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.9639423915318" customWidth="1"/>
-    <col min="5" max="5" width="13.4101845877511" customWidth="1"/>
-    <col min="6" max="6" width="13.4101845877511" customWidth="1"/>
+    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
+    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
     <col min="7" max="7" width="29.5073743547712" customWidth="1"/>
   </cols>
   <sheetData>
@@ -346,7 +346,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="13.4101845877511" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
@@ -498,7 +498,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="13.4101845877511" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
